--- a/dicty/dicty_loop_positions_Chr1_Chr5_Chr6.xlsx
+++ b/dicty/dicty_loop_positions_Chr1_Chr5_Chr6.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10715"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alex/Desktop/ws/hse/diploma/loops/dicty/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F5A787C-ED60-3643-8A40-40E57A5DD9DD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{445A9B3C-E64D-5A49-AF9D-962B32464CD8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14600" yWindow="0" windowWidth="14200" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7460" yWindow="460" windowWidth="14200" windowHeight="16200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Loops" sheetId="1" r:id="rId1"/>
@@ -28,15 +28,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>ID</t>
   </si>
   <si>
     <t>Chr</t>
-  </si>
-  <si>
-    <t>Size (Kb)</t>
   </si>
   <si>
     <t>Chr1_loop bases</t>
@@ -45,19 +42,28 @@
     <t>Chr6_loop bases</t>
   </si>
   <si>
-    <t>"Extrusion track"</t>
-  </si>
-  <si>
-    <t>Genomic bin, Right base</t>
-  </si>
-  <si>
-    <t>Genomic bin, Left base</t>
-  </si>
-  <si>
     <t>Note for extrusion tracks: 0=n/a, 1=from the left base, 2=from the right base</t>
   </si>
   <si>
     <t>Position</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>chr</t>
+  </si>
+  <si>
+    <t>extrusion_track</t>
   </si>
 </sst>
 </file>
@@ -427,8 +433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G438"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A407" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D447" sqref="D447"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -445,25 +451,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -9573,7 +9579,7 @@
         <v>2496</v>
       </c>
       <c r="E435" s="2">
-        <f t="shared" ref="E435:E498" si="7">(D435-C435+1)*2</f>
+        <f t="shared" ref="E435:E438" si="7">(D435-C435+1)*2</f>
         <v>16</v>
       </c>
       <c r="F435" s="2">
@@ -9670,7 +9676,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -9762,10 +9768,10 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
